--- a/data/trans_bre/P25_10-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25_10-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -625,37 +657,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,32</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>6,84</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>2,69</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>131,75%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>333,29%</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>100,81%</t>
+          <t>146,05%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>300,14%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>91,58%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>773,86%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>83,41%</t>
         </is>
       </c>
     </row>
@@ -668,40 +720,60 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 9,22</t>
+          <t>-0,87; 8,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 8,73</t>
+          <t>0,61; 7,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,26</t>
+          <t>-2,66; 7,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,41</t>
+          <t>2,31; 13,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-52,87; 920,4</t>
+          <t>0,84; 7,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-17,89; —</t>
+          <t>-2,09; 5,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-42,24; 846,65</t>
+          <t>-50,18; 1588,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-15,47; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-53,42; 791,36</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>22,38</t>
+          <t>22,08</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>10,42</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,47</t>
+          <t>8,75</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>14,15</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,01</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1803,95%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>668,88%</t>
+          <t>12,3</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>281,88%</t>
+          <t>2035,71%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>177,46%</t>
+          <t>763,53%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>302,87%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>331,11%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>177,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>251,13%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,79; 29,59</t>
+          <t>15,99; 29,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 15,01</t>
+          <t>6,33; 15,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,63; 13,26</t>
+          <t>4,28; 13,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,01; 11,33</t>
+          <t>7,53; 21,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>383,77; —</t>
+          <t>0,8; 11,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>101,12; 3170,97</t>
+          <t>4,59; 19,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>62,9; 877,84</t>
+          <t>479,75; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1012,04</t>
+          <t>140,12; 3745,0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>88,86; 902,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>97,09; 1101,84</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 1094,74</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>31,2; 958,53</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,7</t>
+          <t>18,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>16,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,58</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>19,37</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>11,34</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>473,51%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>570,11%</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>510,35%</t>
+          <t>433,01%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>188,0%</t>
+          <t>570,73%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>522,51%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>325,55%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>188,02%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>104,55%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 24,19</t>
+          <t>13,66; 24,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,79; 20,59</t>
+          <t>12,6; 20,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 20,14</t>
+          <t>11,99; 20,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,79; 17,12</t>
+          <t>13,26; 25,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>215,88; 955,65</t>
+          <t>6,09; 17,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>235,25; 1323,49</t>
+          <t>4,13; 17,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>223,31; 1145,23</t>
+          <t>191,3; 963,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>65,8; 454,06</t>
+          <t>255,76; 1259,43</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>213,99; 1296,94</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>148,53; 675,68</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>66,56; 430,62</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>24,7; 249,6</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>24,53</t>
+          <t>24,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,05</t>
+          <t>17,88</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,66</t>
+          <t>16,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>24,26</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>13,92</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>461,37%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>245,51%</t>
+          <t>17,77</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>168,87%</t>
+          <t>459,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>139,42%</t>
+          <t>243,13%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>172,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>201,44%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>139,52%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>129,29%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 30,66</t>
+          <t>19,46; 31,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,76; 23,28</t>
+          <t>12,5; 23,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,11; 22,27</t>
+          <t>11,29; 22,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,33; 20,84</t>
+          <t>17,03; 30,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>234,59; 784,96</t>
+          <t>7,59; 21,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>124,83; 439,07</t>
+          <t>10,32; 25,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,14; 303,46</t>
+          <t>249,8; 952,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>52,42; 299,51</t>
+          <t>123,66; 427,32</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>90,13; 309,95</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>104,8; 333,05</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>48,91; 298,08</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>56,1; 252,3</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>18,3</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,48</t>
+          <t>16,46</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>23,46</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>16,16</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>215,04%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>182,53%</t>
+          <t>15,97</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>149,73%</t>
+          <t>216,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>176,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>150,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>174,02%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>124,05%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>76,97%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,93; 24,88</t>
+          <t>11,68; 25,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,59; 23,55</t>
+          <t>10,53; 23,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,46; 23,21</t>
+          <t>10,11; 23,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,32; 24,34</t>
+          <t>15,46; 32,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>97,69; 417,51</t>
+          <t>8,77; 23,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>84,88; 329,12</t>
+          <t>7,14; 24,18</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>66,82; 277,09</t>
+          <t>98,24; 446,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>45,03; 260,72</t>
+          <t>83,76; 325,58</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>69,15; 277,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>89,12; 313,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>52,22; 246,6</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>28,17; 150,49</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>20,39</t>
+          <t>21,52</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,06</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>20,41</t>
+          <t>22,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>23,63</t>
+          <t>29,61</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>124,09%</t>
+          <t>23,62</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>85,11%</t>
+          <t>22,79</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>185,42%</t>
+          <t>131,36%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>248,46%</t>
+          <t>93,11%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>213,87%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>191,06%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>248,47%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>139,14%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 29,23</t>
+          <t>13,48; 29,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,36; 23,93</t>
+          <t>6,18; 24,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>10,14; 28,77</t>
+          <t>12,68; 30,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,68; 33,72</t>
+          <t>18,12; 40,47</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>46,49; 232,17</t>
+          <t>13,54; 35,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,73; 196,66</t>
+          <t>12,29; 32,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>44,25; 395,48</t>
+          <t>64,73; 242,31</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>92,23; 562,73</t>
+          <t>25,18; 194,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65,57; 438,88</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>86,26; 373,23</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>86,65; 579,21</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>52,0; 282,3</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>19,23</t>
+          <t>19,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14,61</t>
+          <t>14,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>14,34</t>
+          <t>14,85</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>20,95</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>13,51</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>309,27%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>225,22%</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>213,86%</t>
+          <t>312,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>190,63%</t>
+          <t>228,35%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>225,7%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>238,34%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>190,67%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>132,4%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,24; 22,02</t>
+          <t>16,7; 22,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,86; 16,86</t>
+          <t>12,07; 17,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,58; 16,73</t>
+          <t>12,25; 17,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,54; 16,43</t>
+          <t>17,82; 24,37</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>219,63; 416,29</t>
+          <t>10,33; 16,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>154,89; 317,52</t>
+          <t>11,47; 18,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>144,87; 301,26</t>
+          <t>228,93; 424,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>126,38; 275,2</t>
+          <t>152,21; 312,45</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>150,85; 309,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>173,45; 324,79</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>123,47; 288,17</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>90,85; 182,45</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
